--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\OneDrive\My com\Rang Dong _Product\bc\Template xuất excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8065EF4-4677-4236-8513-336DA06CE92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +30,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BÁO CÁO VIẾNG THĂM CỬA HÀNG</t>
-  </si>
-  <si>
     <t>Mã nhân viên</t>
   </si>
   <si>
@@ -44,12 +42,6 @@
     <t>Thứ</t>
   </si>
   <si>
-    <t>Mã cửa hàng</t>
-  </si>
-  <si>
-    <t>Tên cửa hàng</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
@@ -96,12 +88,21 @@
   </si>
   <si>
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
+  </si>
+  <si>
+    <t>Mã đại lý</t>
+  </si>
+  <si>
+    <t>Tên đại lý</t>
+  </si>
+  <si>
+    <t>BÁO CÁO VIẾNG THĂM ĐẠI LÝ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,15 +220,12 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -237,7 +235,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,469 +518,469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="A4" sqref="A4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="L7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="O7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8065EF4-4677-4236-8513-336DA06CE92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7064B62-2958-4303-B668-7F441302C02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -66,27 +66,12 @@
     <t>Đơn hàng</t>
   </si>
   <si>
-    <t>{Đơn vị quản lý}</t>
-  </si>
-  <si>
-    <t>Đơn vị quản lý 1</t>
-  </si>
-  <si>
-    <t>Đơn vị quản lý 2</t>
-  </si>
-  <si>
     <t>Từ ngày</t>
   </si>
   <si>
-    <t>{ngày bắt đầu}</t>
-  </si>
-  <si>
     <t>Đến ngày</t>
   </si>
   <si>
-    <t>{ngày kết thúc}</t>
-  </si>
-  <si>
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
   </si>
   <si>
@@ -97,13 +82,67 @@
   </si>
   <si>
     <t>BÁO CÁO VIẾNG THĂM ĐẠI LÝ</t>
+  </si>
+  <si>
+    <t>{{Start}}</t>
+  </si>
+  <si>
+    <t>{{End}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.OrganizationName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.STT}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.Username}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.DisplayName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.dayOfWeek}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.StoreCode}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.StoreName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.DateString}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.StoreAddress}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.eCheckIn}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.eCheckOut}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.Duaration}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.DeviceName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.ePlanned}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.ImageCounter}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.eSalesOrder}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +178,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -218,14 +264,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -235,10 +286,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,476 +581,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:O4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A18:O18"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A8:O8"/>
+  <mergeCells count="14">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RangDong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7064B62-2958-4303-B668-7F441302C02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>STT</t>
   </si>
@@ -93,55 +92,52 @@
     <t>{{ReportStoreCheckeds.OrganizationName}}</t>
   </si>
   <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.STT}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.Username}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.DisplayName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.dayOfWeek}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.StoreCode}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.StoreName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.DateString}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.StoreAddress}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.eCheckIn}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.eCheckOut}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.Duaration}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.DeviceName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.ePlanned}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.ImageCounter}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.StoreCheckingGroupByDates.StoreCheckings.eSalesOrder}}</t>
+    <t>{{ReportStoreCheckeds.Username}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.DisplayName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.Date}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.DayOfWeek}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.StoreCode}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.StoreName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.StoreAddress}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.CheckIn}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.CheckOut}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.Duration}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.Device}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.Planned}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.Image}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.Order}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -236,35 +232,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,34 +244,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,34 +533,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -616,26 +569,16 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -653,185 +596,130 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13" t="s">
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="J8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="K8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="L8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="M8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="N8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="O8" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="G7:H7"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RangDong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>{{ReportStoreCheckeds.Order}}</t>
+  </si>
+  <si>
+    <t>Khoảng cách Check-in</t>
+  </si>
+  <si>
+    <t>Khoảng cách Check-out</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.CheckInDistance}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.CheckOutDistance}}</t>
   </si>
 </sst>
 </file>
@@ -247,13 +259,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,52 +564,56 @@
     <col min="8" max="8" width="27.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="24.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
-    <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -615,13 +631,15 @@
       <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -653,71 +671,83 @@
         <v>7</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="N8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="O8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="P8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7EFE1A-BF8F-4115-836A-367A7F223528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,24 +249,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,101 +563,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="20" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="3" t="s">
+    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -655,93 +673,93 @@
       <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="11" t="s">
         <v>35</v>
       </c>
     </row>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7EFE1A-BF8F-4115-836A-367A7F223528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57486E-4148-4BE6-B1AC-76FB31413DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>{{End}}</t>
   </si>
   <si>
-    <t>{{ReportStoreCheckeds.OrganizationName}}</t>
-  </si>
-  <si>
     <t>{{ReportStoreCheckeds.Username}}</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>{{ReportStoreCheckeds.CheckOutDistance}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SaleEmployees.STT}}</t>
   </si>
 </sst>
 </file>
@@ -272,17 +272,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +567,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -593,43 +593,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -689,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>8</v>
@@ -712,55 +712,55 @@
     </row>
     <row r="8" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57486E-4148-4BE6-B1AC-76FB31413DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66AF2FE-AF85-4ABA-9D2B-BF41311EFFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -260,9 +260,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -275,14 +272,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +564,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -593,43 +590,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -657,109 +654,109 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:17" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="10" t="s">
         <v>34</v>
       </c>
     </row>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66AF2FE-AF85-4ABA-9D2B-BF41311EFFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C03BA6-FDE3-49E6-BA70-B3A976AD18A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -90,61 +90,64 @@
     <t>{{End}}</t>
   </si>
   <si>
-    <t>{{ReportStoreCheckeds.Username}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.DisplayName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.Date}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.DayOfWeek}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.StoreCode}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.StoreName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.StoreAddress}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.CheckIn}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.CheckOut}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.Duration}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.Device}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.Planned}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.Image}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.Order}}</t>
-  </si>
-  <si>
     <t>Khoảng cách Check-in</t>
   </si>
   <si>
     <t>Khoảng cách Check-out</t>
   </si>
   <si>
-    <t>{{ReportStoreCheckeds.CheckInDistance}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.CheckOutDistance}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SaleEmployees.STT}}</t>
+    <t>{{ReportStoreCheckeds.OrganizationName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.STT}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Username}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.DisplayName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.DateString}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.DayOfWeek}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.StoreCode}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.StoreName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.StoreAddress}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.CheckIn}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.CheckOut}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.CheckInDistance}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.CheckOutDistance}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Duration}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Device}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Planned}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Image}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Order}}</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -245,11 +248,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -272,14 +299,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,210 +609,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="1" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
-    <row r="7" spans="1:17" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="O7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="Q9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="R9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>34</v>
+      <c r="U9" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="12">
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A4:U4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C03BA6-FDE3-49E6-BA70-B3A976AD18A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB3B48-3F00-4456-BE44-77A4EF550BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -287,20 +287,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -309,12 +318,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -322,12 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,90 +606,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="1" customWidth="1"/>
-    <col min="12" max="12" width="41.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
-    <row r="4" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:22" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -702,179 +703,185 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:22" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
       <c r="U8" s="15"/>
+      <c r="V8" s="16"/>
     </row>
-    <row r="9" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="R9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="S9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="U9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="V9" s="7" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A4:U4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:I7"/>
+  <mergeCells count="14">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A8:V8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RangDong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB3B48-3F00-4456-BE44-77A4EF550BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,21 +98,6 @@
     <t>{{ReportStoreCheckeds.OrganizationName}}</t>
   </si>
   <si>
-    <t>{{ReportStoreCheckeds.SalesEmployees.STT}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SalesEmployees.Username}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SalesEmployees.DisplayName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.DateString}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.DayOfWeek}}</t>
-  </si>
-  <si>
     <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.StoreCode}}</t>
   </si>
   <si>
@@ -148,12 +132,27 @@
   </si>
   <si>
     <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Order}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.DayOfWeek}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.DateString}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.DisplayName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Username}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.STT}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,26 +304,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,11 +604,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,58 +639,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="4" spans="1:22" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -725,26 +724,26 @@
       <c r="V5" s="2"/>
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="4" t="s">
         <v>16</v>
       </c>
@@ -783,87 +782,87 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="V9" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RangDong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE06A25A-2A29-473B-93ED-1A1A783C6E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -147,12 +148,18 @@
   </si>
   <si>
     <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.STT}}</t>
+  </si>
+  <si>
+    <t>Trạng thái đại lý</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.StoreStatusName}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,21 +631,21 @@
     <col min="9" max="9" width="4.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="13" width="21" style="1" customWidth="1"/>
+    <col min="14" max="14" width="41.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
@@ -653,7 +660,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -666,7 +673,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="4" spans="1:22" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -691,8 +698,9 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -709,21 +717,21 @@
       <c r="M5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
     </row>
-    <row r="7" spans="1:22" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
@@ -751,37 +759,40 @@
         <v>17</v>
       </c>
       <c r="M7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -805,9 +816,10 @@
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="14"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="14"/>
     </row>
-    <row r="9" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
@@ -835,43 +847,46 @@
         <v>25</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="V9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="A4:W4"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A8:V8"/>
+    <mergeCell ref="A8:W8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A7:B7"/>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE06A25A-2A29-473B-93ED-1A1A783C6E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4984AEF-D1A4-43F7-9189-14E103546780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -75,9 +75,6 @@
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
   </si>
   <si>
-    <t>Mã đại lý</t>
-  </si>
-  <si>
     <t>Tên đại lý</t>
   </si>
   <si>
@@ -154,6 +151,15 @@
   </si>
   <si>
     <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.StoreStatusName}}</t>
+  </si>
+  <si>
+    <t>Mã đại lý (tự sinh)</t>
+  </si>
+  <si>
+    <t>Mã đại lý (tự nhập)</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.StoreCodeDraft}}</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -304,6 +310,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -612,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,77 +639,80 @@
     <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="21" style="1" customWidth="1"/>
-    <col min="14" max="14" width="41.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="12" width="15.28515625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="21" style="1" customWidth="1"/>
+    <col min="15" max="15" width="41.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="8"/>
     </row>
-    <row r="4" spans="1:23" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
+    <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -711,182 +723,189 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="2"/>
+      <c r="S5" s="3"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
+    </row>
+    <row r="9" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="14"/>
-    </row>
-    <row r="9" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="V9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="W9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="X9" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A4:X4"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="A8:X8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A7:B7"/>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4984AEF-D1A4-43F7-9189-14E103546780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB46B2A0-EECC-44B0-8C2D-34B8AED1E379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Số giờ VT</t>
   </si>
   <si>
-    <t>Thiết bị</t>
-  </si>
-  <si>
     <t>Chụp ảnh</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Duration}}</t>
   </si>
   <si>
-    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Device}}</t>
-  </si>
-  <si>
     <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Planned}}</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.StoreCodeDraft}}</t>
+  </si>
+  <si>
+    <t>Đóng cửa</t>
+  </si>
+  <si>
+    <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Closed}}</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -724,16 +724,16 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="M5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -765,16 +765,16 @@
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>5</v>
@@ -786,30 +786,30 @@
         <v>7</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="U7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="X7" s="4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -837,66 +837,66 @@
     </row>
     <row r="9" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="N9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Report_Store_Checked.xlsx
+++ b/DMS/Templates/Report_Store_Checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB46B2A0-EECC-44B0-8C2D-34B8AED1E379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03B8C51-4B85-4E02-9DF6-23B5910450A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Chụp ảnh</t>
   </si>
   <si>
-    <t>Đúng tuyến</t>
-  </si>
-  <si>
     <t>Đơn hàng</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>{{ReportStoreCheckeds.SalesEmployees.Dates.Contents.Closed}}</t>
+  </si>
+  <si>
+    <t>Trong tuyến</t>
   </si>
 </sst>
 </file>
@@ -170,7 +170,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -623,40 +623,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.25" style="1" customWidth="1"/>
     <col min="13" max="14" width="21" style="1" customWidth="1"/>
-    <col min="15" max="15" width="41.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="41.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.75" style="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.125" style="1" customWidth="1"/>
     <col min="21" max="21" width="20" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="22" width="12.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.25" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -724,16 +724,16 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="M5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -743,7 +743,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
@@ -765,16 +765,16 @@
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>5</v>
@@ -786,30 +786,30 @@
         <v>7</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -837,66 +837,66 @@
     </row>
     <row r="9" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="V9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="W9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="X9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
